--- a/Data/mGF_Trade.xlsx
+++ b/Data/mGF_Trade.xlsx
@@ -125,18 +125,9 @@
     <t>Sheet in technology data (2020)</t>
   </si>
   <si>
-    <t>InvestCost/tech</t>
-  </si>
-  <si>
-    <t>InvestCost/InvestCost</t>
-  </si>
-  <si>
     <t>InvestCost</t>
   </si>
   <si>
-    <t xml:space="preserve">Million EUR / (GJ/h generating capacity) </t>
-  </si>
-  <si>
     <t>g1_CD_Coal</t>
   </si>
   <si>
@@ -357,14 +348,24 @@
   </si>
   <si>
     <t>TechCap/TechCap</t>
+  </si>
+  <si>
+    <t>InvestCost_A/tech</t>
+  </si>
+  <si>
+    <t>InvestCost_A/InvestCost_A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 EUR / (GJ/h generating capacity) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -420,7 +421,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -429,6 +430,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -714,7 +717,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,47 +733,47 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -778,26 +781,26 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -834,10 +837,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,87 +851,87 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -958,16 +961,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
         <v>91</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,25 +1025,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>9.4370000000000009E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1077,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>5.7000000000000002E-2</v>
@@ -1094,7 +1097,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1102,16 +1105,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4">
         <v>0.47</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1140,30 +1143,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>400</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1174,13 +1177,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1202,7 +1205,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1214,7 +1217,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1225,7 +1228,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1236,7 +1239,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1247,7 +1250,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1277,15 +1280,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1317,31 +1320,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1411,9 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1442,10 +1443,10 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1460,24 +1461,24 @@
         <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1487,36 +1488,34 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="2">
-        <f>88*1000/(3.6*1000)</f>
+        <v>31</v>
+      </c>
+      <c r="I2" s="7">
         <v>24.444444444444443</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="2">
-        <f>2000*1000/(3.6*1000000)</f>
-        <v>0.55555555555555558</v>
+        <v>48</v>
+      </c>
+      <c r="K2" s="6">
+        <v>30.975119222830539</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2">
         <v>1000</v>
@@ -1524,7 +1523,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1534,36 +1533,34 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="2">
-        <f>30*1000/(3.6*1000)</f>
+        <v>33</v>
+      </c>
+      <c r="I3" s="7">
         <v>8.3333333333333339</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="2">
-        <f>1000*1000/(3.6*1000000)</f>
-        <v>0.27777777777777779</v>
+        <v>49</v>
+      </c>
+      <c r="K3" s="6">
+        <v>15.48755961141527</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N3" s="2">
         <v>1000</v>
@@ -1571,46 +1568,44 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <f>1/0.5</f>
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="2">
-        <f>10*1000/(3.6*1000)</f>
+        <v>35</v>
+      </c>
+      <c r="I4" s="7">
         <v>2.7777777777777777</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="2">
-        <f>2500*1000/(3.6*1000000)</f>
-        <v>0.69444444444444442</v>
+        <v>50</v>
+      </c>
+      <c r="K4" s="6">
+        <v>34.398098247203741</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N4" s="2">
         <v>1000</v>
@@ -1618,7 +1613,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1628,36 +1623,35 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2">
         <f>88*1000/(3.6*1000)</f>
         <v>24.444444444444443</v>
       </c>
       <c r="J5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="2">
-        <f>2.12/3.6</f>
-        <v>0.58888888888888891</v>
+        <v>51</v>
+      </c>
+      <c r="K5" s="6">
+        <v>25.014032785009661</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N5" s="2">
         <v>500</v>
@@ -1665,7 +1659,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1675,36 +1669,35 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I6" s="2">
         <f>30*1000/(3.6*1000)</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="2">
-        <f>0.56/3.6</f>
-        <v>0.15555555555555556</v>
+        <v>52</v>
+      </c>
+      <c r="K6" s="6">
+        <v>7.0599653473300217</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N6" s="2">
         <v>500</v>
@@ -1712,29 +1705,29 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <f>1/0.5</f>
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I7" s="2">
         <f>10*1000/(3.6*1000)</f>
@@ -1744,7 +1737,7 @@
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N7" s="2">
         <v>1000</v>
@@ -1752,29 +1745,28 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="2">
-        <f>50000/(3.6*1000)</f>
+        <v>40</v>
+      </c>
+      <c r="I8" s="6">
         <v>13.888888888888889</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N8" s="2">
         <v>1000</v>
@@ -1782,29 +1774,28 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="2">
-        <f>11300/(3.6*1000)</f>
+        <v>42</v>
+      </c>
+      <c r="I9" s="6">
         <v>3.1388888888888888</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N9" s="2">
         <v>1000</v>
@@ -1812,29 +1803,28 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="2">
-        <f>50000/(3.6*1000)</f>
+        <v>44</v>
+      </c>
+      <c r="I10" s="6">
         <v>13.888888888888889</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N10" s="2">
         <v>500</v>
@@ -1842,29 +1832,28 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="2">
-        <f>11300/(3.6*1000)</f>
+        <v>45</v>
+      </c>
+      <c r="I11" s="6">
         <v>3.1388888888888888</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N11" s="2">
         <v>500</v>
@@ -1881,7 +1870,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,19 +1904,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -1935,19 +1924,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
@@ -1955,19 +1944,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -1975,19 +1964,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -1995,19 +1984,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -2015,19 +2004,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -2035,19 +2024,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -2055,19 +2044,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -2075,19 +2064,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -2095,19 +2084,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -2123,29 +2112,29 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,7 +2226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2246,15 +2237,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B1">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>0.05</v>

--- a/Data/mGF_Trade.xlsx
+++ b/Data/mGF_Trade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -1414,7 +1414,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2111,8 +2113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
